--- a/excelTemplate/CustomerTemplate.xlsx
+++ b/excelTemplate/CustomerTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>S/N</t>
   </si>
@@ -216,6 +216,22 @@
   </si>
   <si>
     <t>&lt;%=rs1.user_customer_type_name%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.user_bank_account_usd%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.user_bank_account_tzs%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank USD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank TZS</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,11 +735,11 @@
     <col min="6" max="6" width="18.375" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="13"/>
+    <col min="9" max="11" width="26.5" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -751,8 +767,14 @@
       <c r="I1" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -779,6 +801,12 @@
       </c>
       <c r="I2" s="19" t="s">
         <v>38</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/CustomerTemplate.xlsx
+++ b/excelTemplate/CustomerTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>S/N</t>
   </si>
@@ -232,6 +232,14 @@
   </si>
   <si>
     <t>Bank TZS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.user_rate%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -719,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,15 +739,16 @@
     <col min="2" max="2" width="18.375" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="13" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="13" customWidth="1"/>
-    <col min="9" max="11" width="26.5" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="13"/>
+    <col min="5" max="5" width="23.875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="13" customWidth="1"/>
+    <col min="10" max="12" width="26.5" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -753,28 +762,31 @@
         <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -788,29 +800,32 @@
         <v>39</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:J1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
